--- a/dk/BIMTypeCode - Værdiliste BIMTypeNumber - 2022DK.xlsx
+++ b/dk/BIMTypeCode - Værdiliste BIMTypeNumber - 2022DK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuboarkitekter.sharepoint.com/sites/BIM7AA/Shared Documents/BIMTypeCode/BIMTypeCode 2022 DK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:1_{5EA96935-A965-459D-B53F-765115BD2A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4622DE4A-F310-4F57-B56F-82D6FA912453}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{5EA96935-A965-459D-B53F-765115BD2A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985449AF-E6F0-4A75-AD1F-10B753680880}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="-90" yWindow="60" windowWidth="28770" windowHeight="15450" xr2:uid="{9AF57205-CBE7-40ED-98D9-5601CDE464FA}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="745">
   <si>
     <t>Niveau</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Brønde</t>
   </si>
   <si>
-    <t>5041</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drænbrønde </t>
   </si>
   <si>
@@ -2299,7 +2296,7 @@
     <t>Redaktionelle ændringer</t>
   </si>
   <si>
-    <t>Tekst tilføjet til nogle TypeCodeNumber i søjlen "Beskrivelse / Synonymer/Eksempler"</t>
+    <t>For nogle TypeCodeNumber er der tilføjet tekst i søjlen "Beskrivelse / Synonymer/Eksempler"</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2840,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3092,9 +3089,6 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" outlineLevel="1">
@@ -3121,7 +3115,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" outlineLevel="1">
@@ -3132,7 +3126,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" outlineLevel="1">
@@ -3143,7 +3137,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" outlineLevel="1">
@@ -3151,10 +3145,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" outlineLevel="1">
@@ -3162,10 +3156,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" outlineLevel="1">
@@ -3173,10 +3167,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" outlineLevel="1">
@@ -3184,10 +3178,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -3201,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" outlineLevel="1">
@@ -3212,7 +3206,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" outlineLevel="1">
@@ -3220,10 +3214,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -3240,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
@@ -3251,7 +3245,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" outlineLevel="1">
@@ -3262,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" outlineLevel="1">
@@ -3273,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
@@ -3284,7 +3278,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
@@ -3292,10 +3286,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -3312,7 +3306,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
@@ -3323,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
@@ -3334,7 +3328,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
@@ -3345,7 +3339,7 @@
         <v>24</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
@@ -3356,7 +3350,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" outlineLevel="1">
@@ -3364,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" outlineLevel="1">
@@ -3375,10 +3369,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>16</v>
@@ -3395,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
@@ -3406,7 +3400,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
@@ -3417,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5" outlineLevel="1">
@@ -3428,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
@@ -3439,7 +3433,7 @@
         <v>26</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
@@ -3447,10 +3441,10 @@
         <v>13</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" outlineLevel="1">
@@ -3461,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6" outlineLevel="1">
@@ -3472,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" outlineLevel="1">
@@ -3483,7 +3477,7 @@
         <v>22</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="1">
@@ -3494,7 +3488,7 @@
         <v>24</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3502,10 +3496,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>16</v>
@@ -3518,10 +3512,10 @@
         <v>13</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>16</v>
@@ -3535,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6" outlineLevel="1">
@@ -3546,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6" outlineLevel="1">
@@ -3554,10 +3548,10 @@
         <v>13</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3565,10 +3559,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>16</v>
@@ -3581,10 +3575,10 @@
         <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>16</v>
@@ -3598,7 +3592,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:6" outlineLevel="1">
@@ -3609,10 +3603,10 @@
         <v>20</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" outlineLevel="1">
@@ -3623,7 +3617,7 @@
         <v>22</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6" outlineLevel="1">
@@ -3634,7 +3628,7 @@
         <v>24</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6" outlineLevel="1">
@@ -3645,7 +3639,7 @@
         <v>26</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6" outlineLevel="1">
@@ -3653,10 +3647,10 @@
         <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6" outlineLevel="1">
@@ -3664,13 +3658,13 @@
         <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" outlineLevel="1">
@@ -3678,10 +3672,10 @@
         <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6" outlineLevel="1">
@@ -3689,10 +3683,10 @@
         <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>16</v>
@@ -3706,7 +3700,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" outlineLevel="1">
@@ -3717,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" outlineLevel="1">
@@ -3728,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" outlineLevel="1">
@@ -3739,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" outlineLevel="1">
@@ -3747,10 +3741,10 @@
         <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" outlineLevel="1">
@@ -3758,10 +3752,10 @@
         <v>13</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>16</v>
@@ -3775,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:6" outlineLevel="1">
@@ -3786,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6" outlineLevel="1">
@@ -3797,7 +3791,7 @@
         <v>22</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6" outlineLevel="1">
@@ -3808,7 +3802,7 @@
         <v>24</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:6" outlineLevel="1">
@@ -3819,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:6" outlineLevel="1">
@@ -3827,10 +3821,10 @@
         <v>17</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:6" outlineLevel="1">
@@ -3838,10 +3832,10 @@
         <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:6" outlineLevel="1">
@@ -3849,10 +3843,10 @@
         <v>17</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6" outlineLevel="1">
@@ -3860,10 +3854,10 @@
         <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" outlineLevel="1">
@@ -3871,16 +3865,16 @@
         <v>13</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="1">
@@ -3891,7 +3885,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
@@ -3902,7 +3896,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
@@ -3913,7 +3907,7 @@
         <v>22</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
@@ -3924,7 +3918,7 @@
         <v>24</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
@@ -3935,7 +3929,7 @@
         <v>26</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
@@ -3943,13 +3937,13 @@
         <v>17</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
@@ -3957,10 +3951,10 @@
         <v>17</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
@@ -3968,16 +3962,16 @@
         <v>13</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
@@ -3988,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
@@ -3999,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
@@ -4010,7 +4004,7 @@
         <v>22</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
@@ -4021,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
@@ -4032,7 +4026,7 @@
         <v>26</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
@@ -4040,10 +4034,10 @@
         <v>17</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
@@ -4051,17 +4045,17 @@
         <v>13</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1">
@@ -4072,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1">
@@ -4083,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1">
@@ -4094,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1">
@@ -4102,10 +4096,10 @@
         <v>17</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
@@ -4113,17 +4107,17 @@
         <v>13</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6" outlineLevel="1">
@@ -4134,7 +4128,7 @@
         <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:6" outlineLevel="1">
@@ -4145,7 +4139,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
@@ -4153,10 +4147,10 @@
         <v>17</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
@@ -4164,17 +4158,17 @@
         <v>13</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
@@ -4185,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
@@ -4196,7 +4190,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
@@ -4207,7 +4201,7 @@
         <v>22</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
@@ -4218,7 +4212,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
@@ -4229,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
@@ -4237,10 +4231,10 @@
         <v>17</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
@@ -4248,10 +4242,10 @@
         <v>17</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
@@ -4259,10 +4253,10 @@
         <v>13</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -4271,10 +4265,10 @@
         <v>17</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4282,10 +4276,10 @@
         <v>10</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>16</v>
@@ -4298,10 +4292,10 @@
         <v>13</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>16</v>
@@ -4315,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
@@ -4326,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
@@ -4337,7 +4331,7 @@
         <v>22</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
@@ -4348,7 +4342,7 @@
         <v>24</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
@@ -4356,10 +4350,10 @@
         <v>17</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
@@ -4367,10 +4361,10 @@
         <v>13</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>16</v>
@@ -4384,7 +4378,7 @@
         <v>18</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
@@ -4395,7 +4389,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
@@ -4406,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
@@ -4417,7 +4411,7 @@
         <v>26</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
@@ -4425,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
@@ -4436,10 +4430,10 @@
         <v>17</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
@@ -4447,10 +4441,10 @@
         <v>17</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
@@ -4458,10 +4452,10 @@
         <v>13</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>16</v>
@@ -4475,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
@@ -4486,7 +4480,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
@@ -4497,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
@@ -4508,7 +4502,7 @@
         <v>24</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
@@ -4519,7 +4513,7 @@
         <v>26</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
@@ -4527,10 +4521,10 @@
         <v>17</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
@@ -4538,10 +4532,10 @@
         <v>17</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
@@ -4549,16 +4543,16 @@
         <v>13</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
@@ -4570,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
@@ -4581,7 +4575,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:6" outlineLevel="1">
@@ -4592,10 +4586,10 @@
         <v>22</v>
       </c>
       <c r="E144" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:6" outlineLevel="1">
@@ -4603,10 +4597,10 @@
         <v>17</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1">
@@ -4614,10 +4608,10 @@
         <v>13</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1">
@@ -4628,7 +4622,7 @@
         <v>18</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1">
@@ -4639,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1">
@@ -4650,7 +4644,7 @@
         <v>22</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1">
@@ -4658,10 +4652,10 @@
         <v>17</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1">
@@ -4669,13 +4663,13 @@
         <v>13</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="F151" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1">
@@ -4686,7 +4680,7 @@
         <v>18</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1">
@@ -4697,7 +4691,7 @@
         <v>20</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1">
@@ -4708,7 +4702,7 @@
         <v>22</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1">
@@ -4719,7 +4713,7 @@
         <v>24</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1">
@@ -4730,10 +4724,10 @@
         <v>26</v>
       </c>
       <c r="E156" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1">
@@ -4741,13 +4735,13 @@
         <v>17</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E157" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:6" outlineLevel="1">
@@ -4755,10 +4749,10 @@
         <v>13</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1">
@@ -4766,10 +4760,10 @@
         <v>17</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4777,10 +4771,10 @@
         <v>10</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>16</v>
@@ -4793,10 +4787,10 @@
         <v>13</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>16</v>
@@ -4810,7 +4804,7 @@
         <v>18</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
@@ -4821,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:6" outlineLevel="1">
@@ -4832,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:6" outlineLevel="1">
@@ -4843,7 +4837,7 @@
         <v>24</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
@@ -4854,7 +4848,7 @@
         <v>26</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1">
@@ -4862,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:6" outlineLevel="1">
@@ -4873,10 +4867,10 @@
         <v>13</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>16</v>
@@ -4890,10 +4884,10 @@
         <v>18</v>
       </c>
       <c r="E169" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F169" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1">
@@ -4904,10 +4898,10 @@
         <v>20</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1">
@@ -4918,7 +4912,7 @@
         <v>22</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1">
@@ -4926,10 +4920,10 @@
         <v>17</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1">
@@ -4937,10 +4931,10 @@
         <v>13</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>16</v>
@@ -4954,7 +4948,7 @@
         <v>18</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1">
@@ -4965,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:6" outlineLevel="1">
@@ -4976,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1">
@@ -4987,7 +4981,7 @@
         <v>24</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1">
@@ -4998,7 +4992,7 @@
         <v>26</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:6" outlineLevel="1">
@@ -5006,10 +5000,10 @@
         <v>17</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:6" outlineLevel="1">
@@ -5017,10 +5011,10 @@
         <v>17</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:6" outlineLevel="1">
@@ -5028,10 +5022,10 @@
         <v>13</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>16</v>
@@ -5045,7 +5039,7 @@
         <v>18</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:6" outlineLevel="1">
@@ -5056,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:6" outlineLevel="1">
@@ -5064,10 +5058,10 @@
         <v>17</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
@@ -5075,10 +5069,10 @@
         <v>13</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:6" outlineLevel="1">
@@ -5089,7 +5083,7 @@
         <v>18</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:6" outlineLevel="1">
@@ -5100,7 +5094,7 @@
         <v>20</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:6" outlineLevel="1">
@@ -5111,7 +5105,7 @@
         <v>22</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:6" outlineLevel="1">
@@ -5119,10 +5113,10 @@
         <v>17</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:6" outlineLevel="1">
@@ -5130,10 +5124,10 @@
         <v>13</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:6" outlineLevel="1">
@@ -5141,10 +5135,10 @@
         <v>17</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5152,10 +5146,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>16</v>
@@ -5168,10 +5162,10 @@
         <v>13</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>16</v>
@@ -5185,7 +5179,7 @@
         <v>18</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:5" outlineLevel="1">
@@ -5196,7 +5190,7 @@
         <v>20</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:5" outlineLevel="1">
@@ -5207,7 +5201,7 @@
         <v>22</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:5" outlineLevel="1">
@@ -5218,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:5" outlineLevel="1">
@@ -5229,7 +5223,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:5" outlineLevel="1">
@@ -5237,10 +5231,10 @@
         <v>17</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:5" outlineLevel="1">
@@ -5248,10 +5242,10 @@
         <v>17</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:5" outlineLevel="1">
@@ -5259,10 +5253,10 @@
         <v>13</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>16</v>
@@ -5276,7 +5270,7 @@
         <v>18</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:5" outlineLevel="1">
@@ -5287,7 +5281,7 @@
         <v>20</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:5" outlineLevel="1">
@@ -5298,7 +5292,7 @@
         <v>22</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:5" outlineLevel="1">
@@ -5309,7 +5303,7 @@
         <v>24</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:5" outlineLevel="1">
@@ -5317,10 +5311,10 @@
         <v>17</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:5" outlineLevel="1">
@@ -5328,10 +5322,10 @@
         <v>13</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>16</v>
@@ -5345,7 +5339,7 @@
         <v>18</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:6" outlineLevel="1">
@@ -5356,7 +5350,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:6" outlineLevel="1">
@@ -5367,7 +5361,7 @@
         <v>22</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:6" outlineLevel="1">
@@ -5378,7 +5372,7 @@
         <v>24</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:6" outlineLevel="1">
@@ -5389,7 +5383,7 @@
         <v>26</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:6" outlineLevel="1">
@@ -5397,10 +5391,10 @@
         <v>17</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="214" spans="1:6" outlineLevel="1">
@@ -5408,10 +5402,10 @@
         <v>13</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:6" outlineLevel="1">
@@ -5422,7 +5416,7 @@
         <v>18</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:6" outlineLevel="1">
@@ -5430,10 +5424,10 @@
         <v>17</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:6" outlineLevel="1">
@@ -5441,10 +5435,10 @@
         <v>13</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5452,10 +5446,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C218" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>16</v>
@@ -5468,10 +5462,10 @@
         <v>13</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>16</v>
@@ -5485,7 +5479,7 @@
         <v>18</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:6" outlineLevel="1">
@@ -5496,7 +5490,7 @@
         <v>20</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="222" spans="1:6" outlineLevel="1">
@@ -5507,7 +5501,7 @@
         <v>22</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="1:6" outlineLevel="1">
@@ -5518,7 +5512,7 @@
         <v>24</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="1:6" outlineLevel="1">
@@ -5529,7 +5523,7 @@
         <v>26</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="1:5" outlineLevel="1">
@@ -5537,10 +5531,10 @@
         <v>17</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="1:5" outlineLevel="1">
@@ -5548,10 +5542,10 @@
         <v>17</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:5" outlineLevel="1">
@@ -5559,10 +5553,10 @@
         <v>17</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="1:5" outlineLevel="1">
@@ -5570,10 +5564,10 @@
         <v>17</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="229" spans="1:5" outlineLevel="1">
@@ -5581,10 +5575,10 @@
         <v>13</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>16</v>
@@ -5598,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" spans="1:5" outlineLevel="1">
@@ -5609,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" spans="1:5" outlineLevel="1">
@@ -5620,7 +5614,7 @@
         <v>22</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:5" outlineLevel="1">
@@ -5631,7 +5625,7 @@
         <v>24</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="234" spans="1:5" outlineLevel="1">
@@ -5642,7 +5636,7 @@
         <v>26</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:5" outlineLevel="1">
@@ -5650,10 +5644,10 @@
         <v>17</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="1:5" outlineLevel="1">
@@ -5661,10 +5655,10 @@
         <v>17</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" spans="1:5" outlineLevel="1">
@@ -5672,10 +5666,10 @@
         <v>17</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:5" outlineLevel="1">
@@ -5683,10 +5677,10 @@
         <v>17</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:5" outlineLevel="1">
@@ -5694,10 +5688,10 @@
         <v>13</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:5" outlineLevel="1">
@@ -5708,7 +5702,7 @@
         <v>18</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:6" outlineLevel="1">
@@ -5719,7 +5713,7 @@
         <v>20</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="242" spans="1:6" outlineLevel="1">
@@ -5730,7 +5724,7 @@
         <v>22</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="243" spans="1:6" outlineLevel="1">
@@ -5741,7 +5735,7 @@
         <v>24</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="244" spans="1:6" outlineLevel="1">
@@ -5752,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="245" spans="1:6" outlineLevel="1">
@@ -5760,10 +5754,10 @@
         <v>17</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
@@ -5771,10 +5765,10 @@
         <v>13</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
@@ -5785,7 +5779,7 @@
         <v>18</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:6" outlineLevel="1">
@@ -5793,10 +5787,10 @@
         <v>17</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:6" outlineLevel="1">
@@ -5804,10 +5798,10 @@
         <v>13</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:6" outlineLevel="1">
@@ -5815,10 +5809,10 @@
         <v>17</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5826,10 +5820,10 @@
         <v>10</v>
       </c>
       <c r="B251" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C251" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>16</v>
@@ -5842,10 +5836,10 @@
         <v>13</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>16</v>
@@ -5859,7 +5853,7 @@
         <v>18</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
@@ -5870,7 +5864,7 @@
         <v>20</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:6" outlineLevel="1">
@@ -5881,7 +5875,7 @@
         <v>22</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:6" outlineLevel="1">
@@ -5889,10 +5883,10 @@
         <v>13</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>16</v>
@@ -5906,7 +5900,7 @@
         <v>18</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:6" outlineLevel="1">
@@ -5917,7 +5911,7 @@
         <v>20</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="1:6" outlineLevel="1">
@@ -5928,7 +5922,7 @@
         <v>22</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
@@ -5939,7 +5933,7 @@
         <v>24</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="1:6" outlineLevel="1">
@@ -5950,7 +5944,7 @@
         <v>26</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="262" spans="1:6" outlineLevel="1">
@@ -5958,10 +5952,10 @@
         <v>17</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:6" outlineLevel="1">
@@ -5969,10 +5963,10 @@
         <v>17</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="264" spans="1:6" outlineLevel="1">
@@ -5980,13 +5974,13 @@
         <v>17</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E264" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F264" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
@@ -5994,10 +5988,10 @@
         <v>17</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="266" spans="1:6" outlineLevel="1">
@@ -6005,10 +5999,10 @@
         <v>13</v>
       </c>
       <c r="B266" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>16</v>
@@ -6022,7 +6016,7 @@
         <v>18</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="268" spans="1:6" outlineLevel="1">
@@ -6033,7 +6027,7 @@
         <v>20</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="269" spans="1:6" outlineLevel="1">
@@ -6044,7 +6038,7 @@
         <v>22</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="270" spans="1:6" outlineLevel="1">
@@ -6055,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="271" spans="1:6" outlineLevel="1">
@@ -6066,7 +6060,7 @@
         <v>26</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="272" spans="1:6" outlineLevel="1">
@@ -6074,10 +6068,10 @@
         <v>17</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="273" spans="1:5" outlineLevel="1">
@@ -6085,10 +6079,10 @@
         <v>17</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274" spans="1:5" outlineLevel="1">
@@ -6096,10 +6090,10 @@
         <v>17</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="275" spans="1:5" outlineLevel="1">
@@ -6107,10 +6101,10 @@
         <v>17</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="276" spans="1:5" outlineLevel="1">
@@ -6118,10 +6112,10 @@
         <v>13</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>16</v>
@@ -6135,7 +6129,7 @@
         <v>18</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="1:5" outlineLevel="1">
@@ -6146,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="279" spans="1:5" outlineLevel="1">
@@ -6157,7 +6151,7 @@
         <v>22</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="280" spans="1:5" outlineLevel="1">
@@ -6168,7 +6162,7 @@
         <v>24</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="1:5" outlineLevel="1">
@@ -6179,7 +6173,7 @@
         <v>26</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="282" spans="1:5" outlineLevel="1">
@@ -6187,10 +6181,10 @@
         <v>17</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="283" spans="1:5" outlineLevel="1">
@@ -6198,10 +6192,10 @@
         <v>17</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="284" spans="1:5" outlineLevel="1">
@@ -6209,10 +6203,10 @@
         <v>17</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="285" spans="1:5" outlineLevel="1">
@@ -6220,10 +6214,10 @@
         <v>17</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="286" spans="1:5" outlineLevel="1">
@@ -6231,10 +6225,10 @@
         <v>13</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>16</v>
@@ -6248,7 +6242,7 @@
         <v>18</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:5" outlineLevel="1">
@@ -6259,7 +6253,7 @@
         <v>20</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="289" spans="1:6" outlineLevel="1">
@@ -6270,7 +6264,7 @@
         <v>22</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F289" s="11"/>
     </row>
@@ -6282,7 +6276,7 @@
         <v>24</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:6" outlineLevel="1">
@@ -6293,7 +6287,7 @@
         <v>26</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="292" spans="1:6" outlineLevel="1">
@@ -6301,10 +6295,10 @@
         <v>17</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="293" spans="1:6" outlineLevel="1">
@@ -6312,10 +6306,10 @@
         <v>17</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="294" spans="1:6" outlineLevel="1">
@@ -6323,10 +6317,10 @@
         <v>17</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="295" spans="1:6" outlineLevel="1">
@@ -6334,10 +6328,10 @@
         <v>17</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="296" spans="1:6" outlineLevel="1">
@@ -6345,10 +6339,10 @@
         <v>13</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>16</v>
@@ -6362,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="E297" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="298" spans="1:6" outlineLevel="1">
@@ -6373,7 +6367,7 @@
         <v>20</v>
       </c>
       <c r="E298" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="299" spans="1:6" outlineLevel="1">
@@ -6384,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="E299" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="300" spans="1:6" outlineLevel="1">
@@ -6395,7 +6389,7 @@
         <v>24</v>
       </c>
       <c r="E300" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="301" spans="1:6" outlineLevel="1">
@@ -6406,7 +6400,7 @@
         <v>26</v>
       </c>
       <c r="E301" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="302" spans="1:6" outlineLevel="1">
@@ -6414,10 +6408,10 @@
         <v>17</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E302" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="303" spans="1:6" outlineLevel="1">
@@ -6425,10 +6419,10 @@
         <v>17</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E303" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="304" spans="1:6" outlineLevel="1">
@@ -6436,10 +6430,10 @@
         <v>17</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E304" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="305" spans="1:5" outlineLevel="1">
@@ -6447,10 +6441,10 @@
         <v>17</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="306" spans="1:5" outlineLevel="1">
@@ -6458,10 +6452,10 @@
         <v>13</v>
       </c>
       <c r="B306" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>16</v>
@@ -6475,7 +6469,7 @@
         <v>18</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="308" spans="1:5" outlineLevel="1">
@@ -6486,7 +6480,7 @@
         <v>20</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="309" spans="1:5" outlineLevel="1">
@@ -6497,7 +6491,7 @@
         <v>22</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="310" spans="1:5" outlineLevel="1">
@@ -6508,7 +6502,7 @@
         <v>24</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="311" spans="1:5" outlineLevel="1">
@@ -6519,7 +6513,7 @@
         <v>26</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="312" spans="1:5" outlineLevel="1">
@@ -6527,10 +6521,10 @@
         <v>17</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="313" spans="1:5" outlineLevel="1">
@@ -6538,10 +6532,10 @@
         <v>17</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="314" spans="1:5" outlineLevel="1">
@@ -6549,10 +6543,10 @@
         <v>17</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="315" spans="1:5" outlineLevel="1">
@@ -6560,10 +6554,10 @@
         <v>13</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>16</v>
@@ -6577,7 +6571,7 @@
         <v>18</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="317" spans="1:5" outlineLevel="1">
@@ -6588,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="318" spans="1:5" outlineLevel="1">
@@ -6599,7 +6593,7 @@
         <v>22</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="319" spans="1:5" outlineLevel="1">
@@ -6610,7 +6604,7 @@
         <v>24</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="320" spans="1:5" outlineLevel="1">
@@ -6618,10 +6612,10 @@
         <v>17</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:6" outlineLevel="1">
@@ -6629,10 +6623,10 @@
         <v>13</v>
       </c>
       <c r="B321" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C321" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6640,10 +6634,10 @@
         <v>10</v>
       </c>
       <c r="B322" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C322" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="C322" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>16</v>
@@ -6656,10 +6650,10 @@
         <v>13</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>16</v>
@@ -6673,7 +6667,7 @@
         <v>18</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="325" spans="1:6" outlineLevel="1">
@@ -6684,7 +6678,7 @@
         <v>20</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="326" spans="1:6" outlineLevel="1">
@@ -6695,7 +6689,7 @@
         <v>22</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="327" spans="1:6" outlineLevel="1">
@@ -6706,7 +6700,7 @@
         <v>24</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="328" spans="1:6" outlineLevel="1">
@@ -6714,10 +6708,10 @@
         <v>17</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:6" outlineLevel="1">
@@ -6725,10 +6719,10 @@
         <v>13</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>16</v>
@@ -6742,7 +6736,7 @@
         <v>18</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="331" spans="1:6" outlineLevel="1">
@@ -6753,7 +6747,7 @@
         <v>20</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="332" spans="1:6" outlineLevel="1">
@@ -6764,7 +6758,7 @@
         <v>22</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="333" spans="1:6" outlineLevel="1">
@@ -6775,7 +6769,7 @@
         <v>24</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="334" spans="1:6" outlineLevel="1">
@@ -6783,10 +6777,10 @@
         <v>17</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="335" spans="1:6" outlineLevel="1">
@@ -6794,16 +6788,16 @@
         <v>13</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="336" spans="1:6" outlineLevel="1">
@@ -6814,7 +6808,7 @@
         <v>18</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="337" spans="1:6" outlineLevel="1">
@@ -6822,10 +6816,10 @@
         <v>17</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="338" spans="1:6" outlineLevel="1">
@@ -6833,10 +6827,10 @@
         <v>13</v>
       </c>
       <c r="B338" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -6844,10 +6838,10 @@
         <v>10</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C339" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="C339" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>16</v>
@@ -6860,16 +6854,16 @@
         <v>13</v>
       </c>
       <c r="B340" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C340" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="341" spans="1:6" outlineLevel="1">
@@ -6921,10 +6915,10 @@
         <v>17</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="346" spans="1:6" outlineLevel="1">
@@ -6932,10 +6926,10 @@
         <v>13</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>16</v>
@@ -6949,7 +6943,7 @@
         <v>18</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="348" spans="1:6" outlineLevel="1">
@@ -6960,7 +6954,7 @@
         <v>20</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="349" spans="1:6" outlineLevel="1">
@@ -6968,10 +6962,10 @@
         <v>17</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="350" spans="1:6" outlineLevel="1">
@@ -6979,10 +6973,10 @@
         <v>13</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>16</v>
@@ -6996,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="352" spans="1:6" outlineLevel="1">
@@ -7007,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="353" spans="1:6" outlineLevel="1">
@@ -7018,10 +7012,10 @@
         <v>22</v>
       </c>
       <c r="E353" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F353" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="F353" s="11" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="354" spans="1:6" outlineLevel="1">
@@ -7032,7 +7026,7 @@
         <v>24</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="355" spans="1:6" outlineLevel="1">
@@ -7043,7 +7037,7 @@
         <v>26</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="356" spans="1:6" outlineLevel="1">
@@ -7051,10 +7045,10 @@
         <v>17</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="357" spans="1:6" outlineLevel="1">
@@ -7062,10 +7056,10 @@
         <v>13</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>16</v>
@@ -7079,7 +7073,7 @@
         <v>18</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="359" spans="1:6" outlineLevel="1">
@@ -7090,7 +7084,7 @@
         <v>20</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="360" spans="1:6" outlineLevel="1">
@@ -7101,7 +7095,7 @@
         <v>22</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="361" spans="1:6" outlineLevel="1">
@@ -7112,7 +7106,7 @@
         <v>24</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="362" spans="1:6" outlineLevel="1">
@@ -7123,10 +7117,10 @@
         <v>26</v>
       </c>
       <c r="E362" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F362" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="F362" s="11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="363" spans="1:6" outlineLevel="1">
@@ -7134,10 +7128,10 @@
         <v>17</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="364" spans="1:6" outlineLevel="1">
@@ -7145,10 +7139,10 @@
         <v>17</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:6" outlineLevel="1">
@@ -7156,10 +7150,10 @@
         <v>17</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="366" spans="1:6" outlineLevel="1">
@@ -7167,10 +7161,10 @@
         <v>17</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="367" spans="1:6" outlineLevel="1">
@@ -7178,10 +7172,10 @@
         <v>13</v>
       </c>
       <c r="B367" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C367" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>16</v>
@@ -7195,7 +7189,7 @@
         <v>18</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="369" spans="1:5" outlineLevel="1">
@@ -7206,7 +7200,7 @@
         <v>20</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:5" outlineLevel="1">
@@ -7217,7 +7211,7 @@
         <v>22</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="371" spans="1:5" outlineLevel="1">
@@ -7225,10 +7219,10 @@
         <v>17</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372" spans="1:5" outlineLevel="1">
@@ -7236,10 +7230,10 @@
         <v>13</v>
       </c>
       <c r="B372" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C372" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>16</v>
@@ -7253,7 +7247,7 @@
         <v>18</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="1:5" outlineLevel="1">
@@ -7264,7 +7258,7 @@
         <v>20</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="1:5" outlineLevel="1">
@@ -7272,10 +7266,10 @@
         <v>13</v>
       </c>
       <c r="B375" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C375" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>16</v>
@@ -7289,7 +7283,7 @@
         <v>18</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="377" spans="1:5" outlineLevel="1">
@@ -7300,7 +7294,7 @@
         <v>20</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="378" spans="1:5" outlineLevel="1">
@@ -7311,7 +7305,7 @@
         <v>22</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="379" spans="1:5" outlineLevel="1">
@@ -7322,7 +7316,7 @@
         <v>24</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="1:5" outlineLevel="1">
@@ -7333,7 +7327,7 @@
         <v>26</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:5" outlineLevel="1">
@@ -7341,10 +7335,10 @@
         <v>17</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382" spans="1:5" outlineLevel="1">
@@ -7352,10 +7346,10 @@
         <v>17</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="1:5" outlineLevel="1">
@@ -7363,10 +7357,10 @@
         <v>13</v>
       </c>
       <c r="B383" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C383" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>16</v>
@@ -7380,7 +7374,7 @@
         <v>18</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="385" spans="1:6" outlineLevel="1">
@@ -7391,7 +7385,7 @@
         <v>20</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="1:6" outlineLevel="1">
@@ -7402,7 +7396,7 @@
         <v>22</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="387" spans="1:6" outlineLevel="1">
@@ -7413,7 +7407,7 @@
         <v>24</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="388" spans="1:6" outlineLevel="1">
@@ -7424,7 +7418,7 @@
         <v>26</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="389" spans="1:6" outlineLevel="1">
@@ -7432,13 +7426,13 @@
         <v>17</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E389" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F389" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="F389" s="4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="390" spans="1:6" outlineLevel="1">
@@ -7446,10 +7440,10 @@
         <v>13</v>
       </c>
       <c r="B390" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C390" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>16</v>
@@ -7463,7 +7457,7 @@
         <v>18</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="392" spans="1:6" outlineLevel="1">
@@ -7474,7 +7468,7 @@
         <v>20</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="393" spans="1:6" outlineLevel="1">
@@ -7485,7 +7479,7 @@
         <v>22</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="394" spans="1:6" outlineLevel="1">
@@ -7496,10 +7490,10 @@
         <v>24</v>
       </c>
       <c r="E394" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F394" s="11" t="s">
         <v>479</v>
-      </c>
-      <c r="F394" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="395" spans="1:6" outlineLevel="1">
@@ -7510,10 +7504,10 @@
         <v>26</v>
       </c>
       <c r="E395" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F395" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="F395" s="11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -7521,15 +7515,15 @@
         <v>6</v>
       </c>
       <c r="B396" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C396" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="C396" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="D396" s="10"/>
       <c r="E396" s="10"/>
       <c r="F396" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -7537,10 +7531,10 @@
         <v>10</v>
       </c>
       <c r="B397" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C397" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
@@ -7551,10 +7545,10 @@
         <v>13</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:6" outlineLevel="1">
@@ -7565,7 +7559,7 @@
         <v>18</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="1:6" outlineLevel="1">
@@ -7576,7 +7570,7 @@
         <v>20</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:5" outlineLevel="1">
@@ -7587,7 +7581,7 @@
         <v>22</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="402" spans="1:5" outlineLevel="1">
@@ -7598,7 +7592,7 @@
         <v>24</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="403" spans="1:5" outlineLevel="1">
@@ -7609,7 +7603,7 @@
         <v>26</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" spans="1:5" outlineLevel="1">
@@ -7617,13 +7611,13 @@
         <v>13</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C404" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C404" s="4" t="s">
+      <c r="D404" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="405" spans="1:5" outlineLevel="1">
@@ -7634,7 +7628,7 @@
         <v>18</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="406" spans="1:5" outlineLevel="1">
@@ -7645,7 +7639,7 @@
         <v>20</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="407" spans="1:5" outlineLevel="1">
@@ -7656,7 +7650,7 @@
         <v>22</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="408" spans="1:5" outlineLevel="1">
@@ -7667,7 +7661,7 @@
         <v>24</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="409" spans="1:5" outlineLevel="1">
@@ -7675,10 +7669,10 @@
         <v>13</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="410" spans="1:5" outlineLevel="1">
@@ -7689,7 +7683,7 @@
         <v>18</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="411" spans="1:5" outlineLevel="1">
@@ -7700,7 +7694,7 @@
         <v>20</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="412" spans="1:5" outlineLevel="1">
@@ -7711,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="413" spans="1:5" outlineLevel="1">
@@ -7722,7 +7716,7 @@
         <v>24</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="414" spans="1:5" outlineLevel="1">
@@ -7733,7 +7727,7 @@
         <v>26</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="415" spans="1:5" outlineLevel="1">
@@ -7741,10 +7735,10 @@
         <v>17</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" spans="1:5" outlineLevel="1">
@@ -7752,10 +7746,10 @@
         <v>17</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="417" spans="1:6" outlineLevel="1">
@@ -7763,10 +7757,10 @@
         <v>13</v>
       </c>
       <c r="B417" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C417" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="418" spans="1:6" outlineLevel="1">
@@ -7777,7 +7771,7 @@
         <v>18</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="419" spans="1:6" outlineLevel="1">
@@ -7788,7 +7782,7 @@
         <v>20</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="420" spans="1:6" outlineLevel="1">
@@ -7799,7 +7793,7 @@
         <v>22</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="421" spans="1:6" outlineLevel="1">
@@ -7807,10 +7801,10 @@
         <v>13</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="422" spans="1:6" outlineLevel="1">
@@ -7821,7 +7815,7 @@
         <v>18</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="423" spans="1:6" outlineLevel="1">
@@ -7832,7 +7826,7 @@
         <v>20</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="424" spans="1:6" outlineLevel="1">
@@ -7843,7 +7837,7 @@
         <v>22</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="425" spans="1:6" outlineLevel="1">
@@ -7854,7 +7848,7 @@
         <v>24</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="426" spans="1:6" outlineLevel="1">
@@ -7865,7 +7859,7 @@
         <v>26</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="427" spans="1:6" outlineLevel="1">
@@ -7876,10 +7870,10 @@
         <v>606</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="428" spans="1:6" outlineLevel="1">
@@ -7890,7 +7884,7 @@
         <v>18</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="429" spans="1:6" outlineLevel="1">
@@ -7901,7 +7895,7 @@
         <v>609</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -7909,10 +7903,10 @@
         <v>10</v>
       </c>
       <c r="B430" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C430" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>527</v>
       </c>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
@@ -7923,10 +7917,10 @@
         <v>13</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="432" spans="1:6" outlineLevel="1">
@@ -7937,7 +7931,7 @@
         <v>18</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="433" spans="1:6" outlineLevel="1">
@@ -7948,7 +7942,7 @@
         <v>20</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="434" spans="1:6" outlineLevel="1">
@@ -7959,7 +7953,7 @@
         <v>22</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="435" spans="1:6" outlineLevel="1">
@@ -7967,13 +7961,13 @@
         <v>13</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="436" spans="1:6" outlineLevel="1">
@@ -7984,7 +7978,7 @@
         <v>18</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="437" spans="1:6" outlineLevel="1">
@@ -7992,13 +7986,13 @@
         <v>13</v>
       </c>
       <c r="B437" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C437" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>536</v>
-      </c>
       <c r="D437" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="438" spans="1:6" outlineLevel="1">
@@ -8009,7 +8003,7 @@
         <v>18</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="439" spans="1:6" outlineLevel="1">
@@ -8020,7 +8014,7 @@
         <v>20</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="440" spans="1:6" outlineLevel="1">
@@ -8039,13 +8033,13 @@
         <v>13</v>
       </c>
       <c r="B441" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C441" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="D441" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="442" spans="1:6" outlineLevel="1">
@@ -8056,7 +8050,7 @@
         <v>18</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="443" spans="1:6" outlineLevel="1">
@@ -8064,13 +8058,13 @@
         <v>13</v>
       </c>
       <c r="B443" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="D443" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="444" spans="1:6" outlineLevel="1">
@@ -8081,7 +8075,7 @@
         <v>18</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:6" outlineLevel="1">
@@ -8092,7 +8086,7 @@
         <v>20</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="446" spans="1:6" outlineLevel="1">
@@ -8103,7 +8097,7 @@
         <v>22</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="447" spans="1:6" outlineLevel="1">
@@ -8114,7 +8108,7 @@
         <v>24</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:6" outlineLevel="1">
@@ -8125,10 +8119,10 @@
         <v>26</v>
       </c>
       <c r="E448" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F448" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="F448" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="449" spans="1:6" outlineLevel="1">
@@ -8136,13 +8130,13 @@
         <v>13</v>
       </c>
       <c r="B449" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C449" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="D449" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="450" spans="1:6" outlineLevel="1">
@@ -8153,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="451" spans="1:6" outlineLevel="1">
@@ -8164,7 +8158,7 @@
         <v>20</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="452" spans="1:6" outlineLevel="1">
@@ -8172,13 +8166,13 @@
         <v>13</v>
       </c>
       <c r="B452" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C452" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="D452" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="453" spans="1:6" outlineLevel="1">
@@ -8189,7 +8183,7 @@
         <v>18</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -8197,10 +8191,10 @@
         <v>10</v>
       </c>
       <c r="B454" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C454" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="C454" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
@@ -8211,10 +8205,10 @@
         <v>13</v>
       </c>
       <c r="B455" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C455" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:6" outlineLevel="1">
@@ -8225,7 +8219,7 @@
         <v>18</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:6" outlineLevel="1">
@@ -8236,7 +8230,7 @@
         <v>20</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" spans="1:6" outlineLevel="1">
@@ -8247,7 +8241,7 @@
         <v>22</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="459" spans="1:6" outlineLevel="1">
@@ -8258,7 +8252,7 @@
         <v>24</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" spans="1:6" outlineLevel="1">
@@ -8269,7 +8263,7 @@
         <v>26</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="461" spans="1:6" outlineLevel="1">
@@ -8277,10 +8271,10 @@
         <v>17</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="462" spans="1:6" outlineLevel="1">
@@ -8288,13 +8282,13 @@
         <v>13</v>
       </c>
       <c r="B462" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C462" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C462" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="D462" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" spans="1:6" outlineLevel="1">
@@ -8305,7 +8299,7 @@
         <v>18</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="464" spans="1:6" outlineLevel="1">
@@ -8316,7 +8310,7 @@
         <v>20</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="465" spans="1:6" outlineLevel="1">
@@ -8327,7 +8321,7 @@
         <v>22</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="466" spans="1:6" outlineLevel="1">
@@ -8335,13 +8329,13 @@
         <v>13</v>
       </c>
       <c r="B466" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>566</v>
-      </c>
       <c r="D466" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="467" spans="1:6" outlineLevel="1">
@@ -8352,7 +8346,7 @@
         <v>18</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="468" spans="1:6" outlineLevel="1">
@@ -8363,7 +8357,7 @@
         <v>20</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="1:6" outlineLevel="1">
@@ -8374,7 +8368,7 @@
         <v>22</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="470" spans="1:6" outlineLevel="1">
@@ -8382,10 +8376,10 @@
         <v>13</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -8393,10 +8387,10 @@
         <v>10</v>
       </c>
       <c r="B471" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C471" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>573</v>
       </c>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
@@ -8407,10 +8401,10 @@
         <v>13</v>
       </c>
       <c r="B472" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="473" spans="1:6" outlineLevel="1">
@@ -8421,7 +8415,7 @@
         <v>18</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="474" spans="1:6" outlineLevel="1">
@@ -8432,7 +8426,7 @@
         <v>20</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="475" spans="1:6" outlineLevel="1">
@@ -8443,7 +8437,7 @@
         <v>22</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="476" spans="1:6" outlineLevel="1">
@@ -8454,7 +8448,7 @@
         <v>24</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="477" spans="1:6" outlineLevel="1">
@@ -8465,7 +8459,7 @@
         <v>26</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="478" spans="1:6" outlineLevel="1">
@@ -8473,10 +8467,10 @@
         <v>17</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="479" spans="1:6" outlineLevel="1">
@@ -8484,10 +8478,10 @@
         <v>13</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="480" spans="1:6" outlineLevel="1">
@@ -8498,7 +8492,7 @@
         <v>18</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="481" spans="1:5" outlineLevel="1">
@@ -8509,7 +8503,7 @@
         <v>20</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:5" outlineLevel="1">
@@ -8520,7 +8514,7 @@
         <v>22</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="483" spans="1:5" outlineLevel="1">
@@ -8531,7 +8525,7 @@
         <v>24</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="484" spans="1:5" outlineLevel="1">
@@ -8542,7 +8536,7 @@
         <v>26</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="485" spans="1:5" outlineLevel="1">
@@ -8550,10 +8544,10 @@
         <v>17</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="486" spans="1:5" outlineLevel="1">
@@ -8561,10 +8555,10 @@
         <v>17</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="487" spans="1:5" outlineLevel="1">
@@ -8572,10 +8566,10 @@
         <v>17</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="488" spans="1:5" outlineLevel="1">
@@ -8583,10 +8577,10 @@
         <v>17</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="489" spans="1:5" outlineLevel="1">
@@ -8594,10 +8588,10 @@
         <v>13</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="490" spans="1:5" outlineLevel="1">
@@ -8608,7 +8602,7 @@
         <v>18</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="491" spans="1:5" outlineLevel="1">
@@ -8619,7 +8613,7 @@
         <v>20</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="492" spans="1:5" outlineLevel="1">
@@ -8630,7 +8624,7 @@
         <v>22</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="493" spans="1:5" outlineLevel="1">
@@ -8641,7 +8635,7 @@
         <v>24</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="494" spans="1:5" outlineLevel="1">
@@ -8652,7 +8646,7 @@
         <v>26</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="495" spans="1:5" outlineLevel="1">
@@ -8660,10 +8654,10 @@
         <v>17</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="496" spans="1:5" outlineLevel="1">
@@ -8671,10 +8665,10 @@
         <v>17</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="497" spans="1:5" outlineLevel="1">
@@ -8682,10 +8676,10 @@
         <v>17</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="498" spans="1:5" outlineLevel="1">
@@ -8693,10 +8687,10 @@
         <v>17</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="499" spans="1:5" outlineLevel="1">
@@ -8704,10 +8698,10 @@
         <v>13</v>
       </c>
       <c r="B499" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C499" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="500" spans="1:5" outlineLevel="1">
@@ -8718,7 +8712,7 @@
         <v>18</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="501" spans="1:5" outlineLevel="1">
@@ -8729,7 +8723,7 @@
         <v>20</v>
       </c>
       <c r="E501" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="502" spans="1:5" outlineLevel="1">
@@ -8740,7 +8734,7 @@
         <v>22</v>
       </c>
       <c r="E502" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="503" spans="1:5" outlineLevel="1">
@@ -8748,13 +8742,13 @@
         <v>13</v>
       </c>
       <c r="B503" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C503" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C503" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="D503" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="504" spans="1:5" outlineLevel="1">
@@ -8765,7 +8759,7 @@
         <v>18</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="505" spans="1:5" outlineLevel="1">
@@ -8776,7 +8770,7 @@
         <v>20</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="506" spans="1:5" outlineLevel="1">
@@ -8787,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="507" spans="1:5" outlineLevel="1">
@@ -8798,7 +8792,7 @@
         <v>24</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="508" spans="1:5" outlineLevel="1">
@@ -8809,7 +8803,7 @@
         <v>26</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="509" spans="1:5" outlineLevel="1">
@@ -8817,13 +8811,13 @@
         <v>13</v>
       </c>
       <c r="B509" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C509" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C509" s="4" t="s">
-        <v>611</v>
-      </c>
       <c r="D509" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="510" spans="1:5" outlineLevel="1">
@@ -8834,7 +8828,7 @@
         <v>18</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="511" spans="1:5" outlineLevel="1">
@@ -8845,7 +8839,7 @@
         <v>20</v>
       </c>
       <c r="E511" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="512" spans="1:5" outlineLevel="1">
@@ -8856,7 +8850,7 @@
         <v>22</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="513" spans="1:6" outlineLevel="1">
@@ -8864,13 +8858,13 @@
         <v>13</v>
       </c>
       <c r="B513" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C513" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C513" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="D513" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="514" spans="1:6" outlineLevel="1">
@@ -8881,7 +8875,7 @@
         <v>18</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="515" spans="1:6" outlineLevel="1">
@@ -8892,7 +8886,7 @@
         <v>20</v>
       </c>
       <c r="E515" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="516" spans="1:6" outlineLevel="1">
@@ -8903,7 +8897,7 @@
         <v>22</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="517" spans="1:6" outlineLevel="1">
@@ -8914,7 +8908,7 @@
         <v>24</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="518" spans="1:6" outlineLevel="1">
@@ -8922,13 +8916,13 @@
         <v>13</v>
       </c>
       <c r="B518" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C518" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C518" s="4" t="s">
-        <v>622</v>
-      </c>
       <c r="D518" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="519" spans="1:6" outlineLevel="1">
@@ -8939,7 +8933,7 @@
         <v>18</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="520" spans="1:6" outlineLevel="1">
@@ -8947,10 +8941,10 @@
         <v>13</v>
       </c>
       <c r="B520" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C520" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -8958,10 +8952,10 @@
         <v>10</v>
       </c>
       <c r="B521" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C521" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="C521" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
@@ -8972,10 +8966,10 @@
         <v>13</v>
       </c>
       <c r="B522" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C522" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="523" spans="1:6" outlineLevel="1">
@@ -8986,7 +8980,7 @@
         <v>18</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="524" spans="1:6" outlineLevel="1">
@@ -8997,7 +8991,7 @@
         <v>20</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="525" spans="1:6" outlineLevel="1">
@@ -9008,7 +9002,7 @@
         <v>22</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="526" spans="1:6" outlineLevel="1">
@@ -9016,13 +9010,13 @@
         <v>13</v>
       </c>
       <c r="B526" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C526" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C526" s="4" t="s">
-        <v>634</v>
-      </c>
       <c r="D526" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="527" spans="1:6" outlineLevel="1">
@@ -9033,7 +9027,7 @@
         <v>18</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="528" spans="1:6" outlineLevel="1">
@@ -9044,7 +9038,7 @@
         <v>20</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="529" spans="1:6" outlineLevel="1">
@@ -9055,7 +9049,7 @@
         <v>22</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="530" spans="1:6" outlineLevel="1">
@@ -9063,13 +9057,13 @@
         <v>13</v>
       </c>
       <c r="B530" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C530" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C530" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="D530" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="531" spans="1:6" outlineLevel="1">
@@ -9080,7 +9074,7 @@
         <v>18</v>
       </c>
       <c r="E531" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="532" spans="1:6" outlineLevel="1">
@@ -9091,7 +9085,7 @@
         <v>20</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="533" spans="1:6" outlineLevel="1">
@@ -9102,7 +9096,7 @@
         <v>22</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="534" spans="1:6" outlineLevel="1">
@@ -9113,7 +9107,7 @@
         <v>24</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="535" spans="1:6" outlineLevel="1">
@@ -9124,7 +9118,7 @@
         <v>26</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="536" spans="1:6" outlineLevel="1">
@@ -9132,10 +9126,10 @@
         <v>17</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="537" spans="1:6" outlineLevel="1">
@@ -9143,13 +9137,13 @@
         <v>13</v>
       </c>
       <c r="B537" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C537" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C537" s="4" t="s">
-        <v>647</v>
-      </c>
       <c r="D537" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="538" spans="1:6" outlineLevel="1">
@@ -9160,7 +9154,7 @@
         <v>18</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="539" spans="1:6" outlineLevel="1">
@@ -9171,7 +9165,7 @@
         <v>20</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="540" spans="1:6" outlineLevel="1">
@@ -9182,7 +9176,7 @@
         <v>22</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="541" spans="1:6" outlineLevel="1">
@@ -9193,7 +9187,7 @@
         <v>24</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="542" spans="1:6" outlineLevel="1">
@@ -9201,10 +9195,10 @@
         <v>13</v>
       </c>
       <c r="B542" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -9212,10 +9206,10 @@
         <v>10</v>
       </c>
       <c r="B543" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C543" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="C543" s="8" t="s">
-        <v>655</v>
       </c>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
@@ -9226,13 +9220,13 @@
         <v>13</v>
       </c>
       <c r="B544" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C544" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C544" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="D544" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="545" spans="1:5" outlineLevel="1">
@@ -9243,7 +9237,7 @@
         <v>18</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="546" spans="1:5" outlineLevel="1">
@@ -9254,7 +9248,7 @@
         <v>20</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="547" spans="1:5" outlineLevel="1">
@@ -9265,7 +9259,7 @@
         <v>22</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="548" spans="1:5" outlineLevel="1">
@@ -9273,13 +9267,13 @@
         <v>13</v>
       </c>
       <c r="B548" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C548" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C548" s="4" t="s">
-        <v>662</v>
-      </c>
       <c r="D548" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="549" spans="1:5" outlineLevel="1">
@@ -9290,7 +9284,7 @@
         <v>18</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="550" spans="1:5" outlineLevel="1">
@@ -9301,7 +9295,7 @@
         <v>20</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="551" spans="1:5" outlineLevel="1">
@@ -9312,7 +9306,7 @@
         <v>22</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="552" spans="1:5" outlineLevel="1">
@@ -9323,7 +9317,7 @@
         <v>24</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="553" spans="1:5" outlineLevel="1">
@@ -9334,7 +9328,7 @@
         <v>26</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="554" spans="1:5" outlineLevel="1">
@@ -9342,10 +9336,10 @@
         <v>17</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="555" spans="1:5" outlineLevel="1">
@@ -9353,13 +9347,13 @@
         <v>13</v>
       </c>
       <c r="B555" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C555" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C555" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="D555" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="556" spans="1:5" outlineLevel="1">
@@ -9370,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="557" spans="1:5" outlineLevel="1">
@@ -9381,7 +9375,7 @@
         <v>20</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="558" spans="1:5" outlineLevel="1">
@@ -9392,7 +9386,7 @@
         <v>22</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="559" spans="1:5" outlineLevel="1">
@@ -9403,7 +9397,7 @@
         <v>24</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="560" spans="1:5" outlineLevel="1">
@@ -9414,7 +9408,7 @@
         <v>26</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="561" spans="1:6" outlineLevel="1">
@@ -9422,10 +9416,10 @@
         <v>17</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="562" spans="1:6" outlineLevel="1">
@@ -9433,10 +9427,10 @@
         <v>13</v>
       </c>
       <c r="B562" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C562" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="C562" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -9444,10 +9438,10 @@
         <v>10</v>
       </c>
       <c r="B563" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C563" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="C563" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
@@ -9458,13 +9452,13 @@
         <v>13</v>
       </c>
       <c r="B564" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C564" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C564" s="4" t="s">
-        <v>682</v>
-      </c>
       <c r="D564" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="565" spans="1:6" outlineLevel="1">
@@ -9475,7 +9469,7 @@
         <v>18</v>
       </c>
       <c r="E565" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="566" spans="1:6" outlineLevel="1">
@@ -9483,13 +9477,13 @@
         <v>13</v>
       </c>
       <c r="B566" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C566" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C566" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="D566" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="567" spans="1:6" outlineLevel="1">
@@ -9500,7 +9494,7 @@
         <v>18</v>
       </c>
       <c r="E567" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="568" spans="1:6" outlineLevel="1">
@@ -9511,7 +9505,7 @@
         <v>20</v>
       </c>
       <c r="E568" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="569" spans="1:6" outlineLevel="1">
@@ -9519,10 +9513,10 @@
         <v>13</v>
       </c>
       <c r="B569" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C569" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="C569" s="4" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="570" spans="1:6" outlineLevel="1">
@@ -9533,7 +9527,7 @@
         <v>18</v>
       </c>
       <c r="E570" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="571" spans="1:6" outlineLevel="1">
@@ -9541,10 +9535,10 @@
         <v>13</v>
       </c>
       <c r="B571" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C571" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="572" spans="1:6" outlineLevel="1">
@@ -9555,10 +9549,10 @@
         <v>18</v>
       </c>
       <c r="E572" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F572" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="F572" s="4" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="573" spans="1:6" outlineLevel="1">
@@ -9569,10 +9563,10 @@
         <v>20</v>
       </c>
       <c r="E573" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F573" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="F573" s="4" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="574" spans="1:6" outlineLevel="1">
@@ -9583,10 +9577,10 @@
         <v>22</v>
       </c>
       <c r="E574" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F574" s="4" t="s">
         <v>697</v>
-      </c>
-      <c r="F574" s="4" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="575" spans="1:6" outlineLevel="1">
@@ -9597,10 +9591,10 @@
         <v>24</v>
       </c>
       <c r="E575" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F575" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="F575" s="4" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="576" spans="1:6" outlineLevel="1">
@@ -9611,10 +9605,10 @@
         <v>26</v>
       </c>
       <c r="E576" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F576" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="F576" s="4" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="577" spans="1:6" outlineLevel="1">
@@ -9622,13 +9616,13 @@
         <v>17</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E577" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F577" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="F577" s="4" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="578" spans="1:6" outlineLevel="1">
@@ -9636,10 +9630,10 @@
         <v>13</v>
       </c>
       <c r="B578" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C578" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -9647,10 +9641,10 @@
         <v>10</v>
       </c>
       <c r="B579" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C579" s="8" t="s">
         <v>707</v>
-      </c>
-      <c r="C579" s="8" t="s">
-        <v>708</v>
       </c>
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
@@ -9661,13 +9655,13 @@
         <v>13</v>
       </c>
       <c r="B580" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C580" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C580" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="D580" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="581" spans="1:6" outlineLevel="1">
@@ -9678,7 +9672,7 @@
         <v>18</v>
       </c>
       <c r="E581" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="582" spans="1:6" outlineLevel="1">
@@ -9686,13 +9680,13 @@
         <v>13</v>
       </c>
       <c r="B582" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C582" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="C582" s="4" t="s">
-        <v>713</v>
-      </c>
       <c r="D582" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="583" spans="1:6" outlineLevel="1">
@@ -9703,7 +9697,7 @@
         <v>18</v>
       </c>
       <c r="E583" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="584" spans="1:6" outlineLevel="1">
@@ -9714,7 +9708,7 @@
         <v>20</v>
       </c>
       <c r="E584" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="585" spans="1:6" outlineLevel="1">
@@ -9725,7 +9719,7 @@
         <v>22</v>
       </c>
       <c r="E585" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="586" spans="1:6" outlineLevel="1">
@@ -9736,7 +9730,7 @@
         <v>24</v>
       </c>
       <c r="E586" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="587" spans="1:6" outlineLevel="1">
@@ -9744,10 +9738,10 @@
         <v>13</v>
       </c>
       <c r="B587" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C587" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -9755,10 +9749,10 @@
         <v>10</v>
       </c>
       <c r="B588" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C588" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="C588" s="8" t="s">
-        <v>721</v>
       </c>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
@@ -9769,13 +9763,13 @@
         <v>13</v>
       </c>
       <c r="B589" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C589" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C589" s="4" t="s">
-        <v>723</v>
-      </c>
       <c r="D589" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="590" spans="1:6" outlineLevel="1">
@@ -9786,7 +9780,7 @@
         <v>18</v>
       </c>
       <c r="E590" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="591" spans="1:6" outlineLevel="1">
@@ -9797,7 +9791,7 @@
         <v>20</v>
       </c>
       <c r="E591" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="592" spans="1:6" outlineLevel="1">
@@ -9808,7 +9802,7 @@
         <v>22</v>
       </c>
       <c r="E592" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="593" spans="1:6" outlineLevel="1">
@@ -9819,7 +9813,7 @@
         <v>24</v>
       </c>
       <c r="E593" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="594" spans="1:6" outlineLevel="1">
@@ -9827,13 +9821,13 @@
         <v>13</v>
       </c>
       <c r="B594" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C594" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C594" s="4" t="s">
-        <v>729</v>
-      </c>
       <c r="D594" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="595" spans="1:6" outlineLevel="1">
@@ -9844,7 +9838,7 @@
         <v>18</v>
       </c>
       <c r="E595" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="596" spans="1:6" outlineLevel="1">
@@ -9855,7 +9849,7 @@
         <v>20</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="597" spans="1:6" outlineLevel="1">
@@ -9866,7 +9860,7 @@
         <v>22</v>
       </c>
       <c r="E597" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="598" spans="1:6" outlineLevel="1">
@@ -9877,7 +9871,7 @@
         <v>24</v>
       </c>
       <c r="E598" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="599" spans="1:6" outlineLevel="1">
@@ -9885,10 +9879,10 @@
         <v>13</v>
       </c>
       <c r="B599" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C599" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="C599" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="600" spans="1:6" outlineLevel="1">
@@ -9899,10 +9893,10 @@
         <v>18</v>
       </c>
       <c r="E600" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F600" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="F600" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="601" spans="1:6" outlineLevel="1">
@@ -9913,7 +9907,7 @@
         <v>689</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -9924,7 +9918,7 @@
         <v>69</v>
       </c>
       <c r="C602" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
@@ -9949,7 +9943,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9960,46 +9954,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B2" s="15">
         <v>44805</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B3" s="15">
-        <v>45089</v>
+        <v>45107</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="15">
-        <v>45089</v>
+        <v>45107</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10362,15 +10356,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
@@ -10381,14 +10366,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB22C784-7701-4629-ADE5-723316CA7371}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F616533-2569-4DD2-BF7F-9F7C7362AC31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C738745C-8AF5-4E44-99B0-25D86ACADC22}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C738745C-8AF5-4E44-99B0-25D86ACADC22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F616533-2569-4DD2-BF7F-9F7C7362AC31}"/>
 </file>